--- a/reports_data/generated_report.xlsx
+++ b/reports_data/generated_report.xlsx
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,6 +719,146 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>Matematica</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nom</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sd2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>grt</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1198,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-09 13:35:13</t>
+          <t>2025-06-09 14:16:57</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1249,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1259,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1269,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">

--- a/reports_data/generated_report.xlsx
+++ b/reports_data/generated_report.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ExamenesCalendario" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SolicitudesExamen" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SolicitudesRevision" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Notificaciones" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ResumenEstadisticas" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usuarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExamenesCalendario" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolicitudesExamen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolicitudesRevision" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notificaciones" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ResumenEstadisticas" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,12 +490,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -510,27 +510,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>juan01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estudiante</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Perez Fernandez</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>est01@gmail.com</t>
+          <t>juan01@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>estudiante</t>
+          <t>profesor</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,27 +547,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>prof</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Profesor</t>
+          <t>asdasdas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>dasd</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>prof01@gmail.com</t>
+          <t>asd@dsfds.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>profesor</t>
+          <t>estudiante</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -576,6 +576,43 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Est</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Est</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>diante</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>est@ksdf.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>estudiante</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2r3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>FTI</t>
         </is>
@@ -592,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,7 +661,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45818</v>
+        <v>45759</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -633,18 +670,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Algebra</t>
+          <t>xaxa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45818</v>
+        <v>45759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -653,18 +690,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>isw2</t>
+          <t>Prueba2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45818</v>
+        <v>45772</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -678,13 +715,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ISW</t>
+          <t>Calculo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45819</v>
+        <v>45773</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -698,13 +735,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>ISW</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45819</v>
+        <v>45773</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -713,18 +750,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Matematica</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45820</v>
+        <v>45774</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -733,18 +770,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Bla</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45820</v>
+        <v>45774</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -753,18 +790,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cv</t>
+          <t>Programacion</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45775</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -778,13 +815,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>Asignatura</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45820</v>
+        <v>45798</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -798,17 +835,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>fs</t>
+          <t>Bf</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45820</v>
+        <v>45800</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -818,13 +855,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>nom</t>
+          <t>Matematica</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45821</v>
+        <v>45801</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -838,13 +875,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sd2</t>
+          <t>Prueba</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45821</v>
+        <v>45802</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -858,7 +895,67 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>grt</t>
+          <t>Ingenieria II</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Rsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Huin</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sdf</t>
         </is>
       </c>
     </row>
@@ -873,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,16 +1023,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isw2</t>
+          <t>Rsd</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45818</v>
+        <v>45805</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -953,9 +1050,235 @@
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45817.66324908314</v>
+        <v>45805.54630055568</v>
       </c>
       <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ingenieria II</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45802</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>45801.90210236131</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Haber estudiao</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bf</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>45799.08335261955</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asignatura</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>45774.15387393979</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Programacion</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>suficiencia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>45774.15381843368</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Estudie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bla</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>45774.15376400853</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>45774.15371218043</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ISW</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>45774.15366591872</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -968,7 +1291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,34 +1339,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isw2</t>
+          <t>Programacion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gado</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>45802.75354450462</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>45802.75389835517</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rsd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>porque si</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No me gusta</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>45817.72950916195</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>45817.73150805636</v>
+      <c r="F3" s="3" t="n">
+        <v>45805.54750623354</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>45805.54813827583</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,73 +1446,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>prof</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El estudiante Estudiante Prueba ha solicitado inscribirse en el examen 'isw2'.</t>
+          <t>Tu calificación para Programacion ha sido registrada/actualizada.</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45817.6632491811</v>
+        <v>45801.88907439752</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tu solicitud para el examen 'isw2' fue APROBADA.</t>
+          <t>Tu calificación para Ingenieria II ha sido registrada/actualizada.</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>45817.72921638911</v>
+        <v>45801.90252206347</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tu calificación para isw2 ha sido registrada/actualizada.</t>
+          <t>Tu calificación para Ingenieria II ha sido registrada/actualizada.</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>45817.72929890068</v>
+        <v>45801.90262656316</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>est</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Revisión aprobada en isw2. Nueva calificación: 4</t>
+          <t>Revisión aprobada en Programacion. Nueva calificación: 3.1</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>45817.7315081248</v>
+        <v>45802.75389841293</v>
       </c>
       <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>juan01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>El estudiante None None ha solicitado inscribirse en el examen 'Rsd'.</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>45805.54630063442</v>
+      </c>
+      <c r="D6" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tu solicitud para el examen 'Rsd' fue APROBADA.</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>45805.54653688137</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tu calificación para Rsd ha sido registrada/actualizada.</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>45805.5469488503</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Revisión aprobada en Rsd. Nueva calificación: 4</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>45805.54813843735</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,7 +1626,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-09 14:16:57</t>
+          <t>2025-06-09 14:29:21</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1637,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1219,7 +1647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1249,7 +1677,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1687,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1269,7 +1697,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1279,7 +1707,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1302,7 +1730,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1 (100.00%)</t>
+          <t>4 (50.00%)</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1742,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0 (0.00%)</t>
+          <t>4 (50.00%)</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1754,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1769,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - isw2</t>
+          <t xml:space="preserve">  - Rsd</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1351,7 +1779,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total de Solicitudes de Revisión</t>
+          <t xml:space="preserve">  - Programacion</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1361,57 +1789,97 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Solicitudes de Revisión (Pendiente)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0 (0.00%)</t>
-        </is>
+          <t xml:space="preserve">  - Ingenieria II</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Solicitudes de Revisión (Aprobada)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1 (100.00%)</t>
-        </is>
+          <t xml:space="preserve">  - ISW</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Solicitudes de Revisión (Rechazada)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0 (0.00%)</t>
-        </is>
+          <t xml:space="preserve">  - Bla</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Total de Notificaciones</t>
+          <t>Total de Solicitudes de Revisión</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Solicitudes de Revisión (Pendiente)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0 (0.00%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Solicitudes de Revisión (Aprobada)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2 (100.00%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Solicitudes de Revisión (Rechazada)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0 (0.00%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Total de Notificaciones</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Notificaciones No Leídas</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>4</v>
+      <c r="B26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reports_data/generated_report.xlsx
+++ b/reports_data/generated_report.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Usuarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExamenesCalendario" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolicitudesExamen" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SolicitudesRevision" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notificaciones" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ResumenEstadisticas" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Usuarios" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ExamenesCalendario" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SolicitudesExamen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SolicitudesRevision" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Notificaciones" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ResumenEstadisticas" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,42 +490,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>AdminEst</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Est</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>admin@ggg.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>juan01</t>
+          <t>profe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Prueba1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Perez Fernandez</t>
+          <t>Prof</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>juan01@gmail.com</t>
+          <t>profe@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,22 +555,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>javier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>asdasdas</t>
+          <t>javier ernesto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>dasd</t>
+          <t>Perdomo batista</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>asd@dsfds.com</t>
+          <t>javierb@uci.cu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +580,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>d</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>f4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Est</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Est</t>
+          <t>gre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>diante</t>
+          <t>santiesteban</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>est@ksdf.com</t>
+          <t>grechysan@gmail.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,12 +617,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2r3</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FTI</t>
+          <t>s</t>
         </is>
       </c>
     </row>
@@ -629,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +669,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45759</v>
+        <v>45778</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -675,53 +683,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>xaxa</t>
+          <t>RSI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45759</v>
+        <v>45779</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Prueba2</t>
+          <t>RSI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45772</v>
+        <v>45780</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Calculo</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -730,38 +738,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ISW</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45773</v>
+        <v>45781</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>jgg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45774</v>
+        <v>45803</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -770,38 +778,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bla</t>
+          <t>Algebra</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45774</v>
+        <v>45804</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Programacion</t>
+          <t>Historia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45775</v>
+        <v>45810</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -810,18 +818,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Asignatura</t>
+          <t>IA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45798</v>
+        <v>45816</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -835,13 +843,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bf</t>
+          <t>RSI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45800</v>
+        <v>45817</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -850,38 +858,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Matematica</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45801</v>
+        <v>45817</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>premio</t>
+          <t>suficiencia</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>TP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45802</v>
+        <v>45818</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -895,67 +903,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ingenieria II</t>
+          <t>Matematica</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45805</v>
+        <v>45818</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>premio</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Huin</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45806</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>suficiencia</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>sdf</t>
+          <t>Abc</t>
         </is>
       </c>
     </row>
@@ -970,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,157 +991,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rsd</t>
+          <t>Matematica</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45805</v>
+        <v>45818</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>suficiencia</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45805.54630055568</v>
+        <v>45817.98905305246</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ingenieria II</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45802</v>
+        <v>45817</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>suficiencia</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>45801.90210236131</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Haber estudiao</t>
-        </is>
-      </c>
+        <v>45817.83464670245</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bf</t>
+          <t>GPN</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45798</v>
+        <v>45817</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>suficiencia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>premio</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>45799.08335261955</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>45815.86309891185</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>por los pelos</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asignatura</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45775</v>
+        <v>45816</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>suficiencia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rejected</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>45774.15387393979</v>
+        <v>45815.82529782371</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Programacion</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45774</v>
+        <v>45810</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>suficiencia</t>
+          <t>premio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1182,103 +1150,13 @@
         </is>
       </c>
       <c r="G6" s="3" t="n">
-        <v>45774.15381843368</v>
+        <v>45807.5799502068</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Estudie</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bla</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45774</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>premio</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>45774.15376400853</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>premio</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>45774.15371218043</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ISW</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>45773</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>premio</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>45774.15366591872</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>esfuerzate</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1291,7 +1169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1339,22 +1217,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Programacion</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gado</t>
+          <t>no estoy conforme</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1363,21 +1241,21 @@
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>45802.75354450462</v>
+        <v>45807.58236780807</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45802.75389835517</v>
+        <v>45807.58316240995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rsd</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1387,7 +1265,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No me gusta</t>
+          <t>avsdv</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1396,10 +1274,109 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>45805.54750623354</v>
+        <v>45815.8908045814</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>45805.54813827583</v>
+        <v>45815.89527648172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>adawd</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>45815.89640099036</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>45815.97305098977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>45815.96449691961</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>45818.5433454864</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>jjjjjjj</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>45817.99903427964</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>45817.99903427964</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,16 +1423,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>profe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tu calificación para Programacion ha sido registrada/actualizada.</t>
+          <t>El estudiante gre santiesteban ha solicitado inscribirse en el examen 'IA'.</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45801.88907439752</v>
+        <v>45807.57995057463</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1464,16 +1441,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tu calificación para Ingenieria II ha sido registrada/actualizada.</t>
+          <t>Tu solicitud para el examen 'IA' fue APROBADA.</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>45801.90252206347</v>
+        <v>45807.58093673881</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1482,16 +1459,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tu calificación para Ingenieria II ha sido registrada/actualizada.</t>
+          <t>Tu calificación para IA ha sido registrada/actualizada.</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>45801.90262656316</v>
+        <v>45807.58170092647</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1500,16 +1477,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Revisión aprobada en Programacion. Nueva calificación: 3.1</t>
+          <t>Revisión aprobada en IA. Nueva calificación: 4</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>45802.75389841293</v>
+        <v>45807.58316271544</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1518,34 +1495,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>juan01</t>
+          <t>profe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El estudiante None None ha solicitado inscribirse en el examen 'Rsd'.</t>
+          <t>El estudiante gre santiesteban ha solicitado inscribirse en el examen 'Pweb'.</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>45805.54630063442</v>
+        <v>45807.58394974273</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tu solicitud para el examen 'Rsd' fue APROBADA.</t>
+          <t>Tu solicitud para el examen 'Pweb' fue APROBADA.</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>45805.54653688137</v>
+        <v>45815.79514561007</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1554,16 +1531,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>grettel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tu calificación para Rsd ha sido registrada/actualizada.</t>
+          <t>Tu calificación para Pweb ha sido registrada/actualizada.</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>45805.5469488503</v>
+        <v>45815.82051557588</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1572,19 +1549,289 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>profe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Revisión aprobada en Rsd. Nueva calificación: 4</t>
+          <t>El estudiante gre santiesteban ha solicitado inscribirse en el examen 'RSI'.</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>45805.54813843735</v>
+        <v>45815.8252979742</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tu solicitud para el examen 'RSI' fue APROBADA.</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>45815.82555715455</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tu calificación para RSI ha sido registrada/actualizada.</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>45815.82823572081</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tu calificación para RSI ha sido registrada/actualizada.</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>45815.82897368719</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>profe</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>El estudiante gre santiesteban ha solicitado inscribirse en el examen 'GPN'.</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45815.86309905077</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tu solicitud para el examen 'GPN' fue APROBADA.</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>45815.87689076381</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Revisión aprobada en RSI. Nueva calificación: 4</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>45815.89527665188</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Revisión rechazada en RSI</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>45815.97305112716</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>profe</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>El estudiante gre santiesteban ha solicitado inscribirse en el examen 'TP'.</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>45817.83464790255</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>profe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>El estudiante gre santiesteban ha solicitado inscribirse en el examen 'Matematica'.</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>45817.98905397513</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tu calificación para IA ha sido registrada/actualizada.</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>45818.00033303854</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tu calificación para GPN ha sido registrada/actualizada.</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>45818.00079635737</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tu solicitud para el examen 'Matematica' fue RECHAZADA.</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>45818.00099495095</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tu solicitud para el examen 'TP' fue APROBADA.</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>45818.00104412172</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Revisión aprobada en IA. Nueva calificación: 5</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>45818.54334575252</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>grettel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tu calificación para GPN ha sido registrada/actualizada.</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>45818.54415568484</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1873,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-09 14:29:21</t>
+          <t>2025-06-10 09:08:50</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1924,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1687,7 +1934,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1697,7 +1944,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1707,7 +1954,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1977,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4 (50.00%)</t>
+          <t>4 (80.00%)</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1989,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4 (50.00%)</t>
+          <t>1 (20.00%)</t>
         </is>
       </c>
     </row>
@@ -1754,7 +2001,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -1769,7 +2016,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Rsd</t>
+          <t xml:space="preserve">  - TP</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1779,7 +2026,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Programacion</t>
+          <t xml:space="preserve">  - RSI</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1789,7 +2036,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Ingenieria II</t>
+          <t xml:space="preserve">  - Matematica</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1799,7 +2046,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - ISW</t>
+          <t xml:space="preserve">  - IA</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1809,7 +2056,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Bla</t>
+          <t xml:space="preserve">  - GPN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1823,7 +2070,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +2081,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0 (0.00%)</t>
+          <t>1 (20.00%)</t>
         </is>
       </c>
     </row>
@@ -1846,7 +2093,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2 (100.00%)</t>
+          <t>3 (60.00%)</t>
         </is>
       </c>
     </row>
@@ -1858,7 +2105,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0 (0.00%)</t>
+          <t>1 (20.00%)</t>
         </is>
       </c>
     </row>
@@ -1869,7 +2116,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1879,7 +2126,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
